--- a/lenovo_matches.xlsx
+++ b/lenovo_matches.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,12 +401,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo 10e chromebook  </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd 120hz (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1650 4gb, freedos), negro - teclado qwerty español</t>
+          <t>lenovo 10e chromebook tablet - 82am0001sp</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -416,19 +416,19 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Port%C3%A1til-i7-10750H/dp/B093WZ9BNG/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Lenovo-10e-Chromebook-Tablet-82AM0001SP/dp/B08PBZSZ7N/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+10e+chromebook&amp;qid=1631016461&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo 10e chromebook  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd (amd ryzen 7 5800h, 16gb ram, 1tb ssd, nvidia rtx3060-6gb, sin sistema operativo), azul - teclado qwerty español</t>
+          <t>lenovo 10e chromebook tablet - 10.1" ips (mediatek mt8183, 4gb ram, almacenamiento de 32gb, wifi + bluetooth 4.2, chrome os), color gris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -438,19 +438,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-RTX3060-6GB-Operativo/dp/B08V23GNCB/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Lenovo-Tablet-LN10-Procesador-almacenamiento/dp/B08C6NZ2V2/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+10e+chromebook&amp;qid=1631016461&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo 10e chromebook  </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd, 120hz (amd ryzen 5 5600h, 8gb ram, 512gb ssd, nvidia rtx 3060-6gb, freesync, sin sistema operativo) azul/negro - teclado qwerty portugués</t>
+          <t>lenovo 10e chromebook tablet - 82am0005sp</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -460,7 +460,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Operativo-Portugu%C3%A9s/dp/B097F6RP6G/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Lenovo-10e-Chromebook-Tablet-82AM0005SP/dp/B08QVSMLH1/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+10e+chromebook&amp;qid=1631016461&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
@@ -489,12 +489,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo 330  </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lenovo legion 5 gen 6 - portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, geforce rtx 3060-6gb, wifi 6, sin sistema operativo), azul/negro - teclado qwerty español</t>
+          <t>lenovo ideapad 330-15ikb - ordenador portátil 15.6" hd (intel core i3-7020u, ram de 4gb, 500gb de hdd, intel hd graphics 620, sin sistema operativo) gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Legion-Gen-Port%C3%A1til-Operativo/dp/B09DT2SXCS/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Lenovo-ideapad-330-15IKB-Ordenador-operativo/dp/B07GR2T5JV/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+330&amp;qid=1631016474&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
@@ -533,12 +533,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo essential  </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>lenovo legion 5 - ordenador portátil gaming 17.3" fullhd (amd ryzen 7 5800h, 16gb ram, 1tb ssd, nvidia rtx3060-6gb, sin sistema operativo), azul - teclado qwerty español</t>
+          <t>lenovo thunderbolt 3 essential dock estación de conexión 40av0135eu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,19 +548,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-RTX3060-6GB-Operativo/dp/B08V215TKW/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Lenovo-Thunderbolt-Essential-estaci%C3%B3n-40AV0135EU/dp/B084T7C454/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+essential&amp;qid=1631016514&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo essential  </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lenovo legion 5 gen 6- ordenador portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, nvidia geforce rtx 3060-6gb, windows 10 home) azul/negro - teclado qwerty portugués</t>
+          <t>lenovo notebook thinkpad essential v15-iil 82c500g5sp (0194778007788)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -570,19 +570,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Ordenador-Port%C3%A1til-GeForce-3060-6GB/dp/B09BW36DGL/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-8</t>
+          <t>https://www.amazon.es/Lenovo-Notebook-Essential-82C500G5SP-0194778007788/dp/B087LSP27L/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+essential&amp;qid=1631016514&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo essential  </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>lenovo legion phone duel- móvil gaming 6.65'' fullhd, snapdragon 865+ 5g, 12gb ram, 256 gb ufs 3.1, tarjeta gráfica qualcomm adreno 650, android 10, azul [versión es/pt]</t>
+          <t>lenovo thinkpad essential - mochila portatil 15.6, color negro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Snapdragon-Tarjeta-gr%C3%A1fica-Qualcomm/dp/B08L5CBWWL/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-10</t>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Essential-Mochila-portatil/dp/B00J99CIAI/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+essential&amp;qid=1631016514&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo flex 2  </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>lenovo legion phone duel- móvil gaming 6.65'' fullhd, snapdragon 865+ 5g, 12gb ram, 256 gb ufs 3.1, tarjeta gráfica qualcomm adreno 650, android 10, negro [versión es/pt]</t>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home), color gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -636,19 +636,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Snapdragon-Tarjeta-gr%C3%A1fica-Qualcomm/dp/B08L5FJL6X/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-22</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-convertible-i5-1135G7/dp/B08TN224K8/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo flex 2  </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (amd ryzen 5-5500u, 8gb ram, 512gb ssd, amd radeon graphics, windows 10 en modo s), color azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Port%C3%A1til-Convertible/dp/B08V22LPF2/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo flex 2  </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>notebook lenovo thinkpad t450, intel core i5-5300u, ram 8gb, ssd 256gb, display 14" hd, webcam, win10 pro (reacondicionado)</t>
+          <t>lenovo ideapad flex 3 chromebook - portátil convertíble 11.6" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os) azul - teclado qwerty español</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -658,19 +680,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A08277293CSE1WJ7N7YAQ&amp;url=%2FLenovo-Bluetooth-Ultrabook-certificado-Reacondicionado%2Fdp%2FB08QQ9SQ5B%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dlenovo%2Bt450%26qid%3D1630950305%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630950305&amp;id=5763143928774301&amp;widgetName=sp_atf</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convert%C3%ADble/dp/B08TM1BZY8/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo flex 2  </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>portátil lenovo thinkpad t450 | intel core i5 | disco ssd | 14" hd+ | webcam | win10 pro (reacondicionado) (ram 8 gb – ssd 240 gb)</t>
+          <t>lenovo ideapad flex 5 - ordenador portátil convertible 14" fullhd (amd ryzen 7 5700u, 16gb ram, 512gb ssd, amd radeon graphics, windows 10 home), lenovo digital pen, gris - teclado qwerty portugués</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -680,19 +702,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Port%C3%A1til-Lenovo-Thinkpad-T450-reacondicionado/dp/B08TX5MTL1/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1630950305&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Ordenador-Convertible/dp/B095PLP9L6/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo flex 2  </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>notebook lenovo thinkpad t450, intel core i5-5300u, ram 8gb, ssd 256gb, display 14" hd, webcam, win10 pro (reacondicionado)</t>
+          <t>lenovo ideapad flex 5 - portátil convertíble 14" fullhd (intel core i7-1165g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home en modo s), gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -702,19 +724,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Bluetooth-Ultrabook-certificado-Reacondicionado/dp/B08QQ9SQ5B/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1630950305&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Convert%C3%ADble-i7-1165G7/dp/B08TPBN5K3/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo flex 2  </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>lenovo thinkpad t450 intel core i5-5300u 8gb 128gb 1366x768 webcam bt win 10 pro (reacondicionado)</t>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (amd ryzen 7-4700u, 8gb ram, 512gb ssd, amd radeon graphics, windows 10 home), color gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -724,19 +746,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-i5-5300U-Reacondicionado/dp/B08J44PV16/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1630950305&amp;s=electronics&amp;sr=1-6</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Port%C3%A1til-Convertible/dp/B08M3LJX5H/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-9</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo flex 2  </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>portátil lenovo thinkpad, intel core i5, disco ssd, pantalla de 14 pulgadas, hd, webcam, win10 pro (reacondicionado) (t450 – ram 8 gb – ssd 256 gb)</t>
+          <t>lenovo ideapad flex 3 chromebook - portátil táctil convertible 11.6" hd (intel celeron n4020, 8gb ram, 128gb emmc, intel uhd graphics 600, chrome os), color azul oscuro - teclado qwerty español</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -746,7 +768,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Port%C3%A1til-Lenovo-ThinkPad-reacondicionado-T450/dp/B09BJFQFZG/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1630950305&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convertible/dp/B08TX2KN7L/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-10</t>
         </is>
       </c>
     </row>
@@ -775,12 +797,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>lenovo ultrabook de negocios thinkpad t450 14" led: base i54300u 8gb 500 gb 7200 rpm 14" windows 7 professional actualizable a ganar 8 profesional bluetooth lector de huella digital.</t>
+          <t>lenovo ideapad 3 chromebook - portátil 11" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color negro - teclado qwerty español</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -790,19 +812,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Ultrabook-negocios-ThinkPad-T450/dp/B015FJCXJG/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1630950305&amp;s=electronics&amp;sr=1-25</t>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A00477901HK5K9SNCSY3M&amp;url=%2FLenovo-IdeaPad-Chromebook-Port%25C3%25A1til-Graphics%2Fdp%2FB08T19XK41%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dlenovo%2Bideapad%2B1%26qid%3D1631016558%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631016558&amp;id=2240020394331609&amp;widgetName=sp_atf</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>lenovo thinkpad t450 negro, grafito portátil 35,6 cm (14") 1366 x 768 pixeles 2,2 ghz 5ª generación de procesadores intel® core™ i5 i5-5200u - ordenador portátil (5ª generación de procesadores intel® core™ i5, 2,2 ghz, 35,6 cm (14"), 1366 x 768 pixeles, 8 gb, 256 gb)</t>
+          <t>lenovo ideapad 1 - ordenador portátil 14" hd (amd 3020e, 4gb ram, 64gb emmc, amd radeon graphics, windows 10 home en modo s), gris - teclado qwerty portugués</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -812,19 +834,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-Ordenador-port%C3%A1til/dp/B00U2ZXT6K/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1630950305&amp;s=electronics&amp;sr=1-28</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Portugu%C3%A9s/dp/B08TCKQ8CR/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home en modo s), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-port%C3%A1til-i5-1135G7/dp/B08V249BKY/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450s  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>lenovo thinkpad t450s 14 pulgadas 1600 x 900 hd+ intel core i5 256 gb ssd disco duro 8 gb de memoria windows 10 pro umts lte webcam business notebook (reacondicionado)</t>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 home), color gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -834,19 +878,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkPad-pulgadas-Business-reacondicionado/dp/B09DZ3JY44/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450s&amp;qid=1630950331&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-i3-1115G4/dp/B08TPDN659/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450s  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>lenovo thinkpad t450s 2.3ghz i5-5300u 14" 1920 x 1080pixeles 3g 4g negro - ordenador portátil (i5-5300u, windows 7 professional, 3+3, 64 bits, windows 10 pro, intel core i5-5xxx)</t>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 7 3700u, 8gb ram, 512gb ssd, amd radeon rx vega 10 graphics, windows 10 home) gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -856,19 +900,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-20BX0047UK-ThinkPad-T450s/dp/B017LX8YCE/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450s&amp;qid=1630950331&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B08TN1ZSML/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 - ordenador portátil 15.6" fullhd (intel core i7-1165g7, 16gb de ram, 512gb ssd, intel iris xe graphics, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-i7-1165G7-Operativo/dp/B094R8C84P/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t480s  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>lenovo thinkpad t480s - 20l8sfk204</t>
+          <t>lenovo ideapad duet 3i - tablet 2 en 1 (10,3 pulgadas, 1920 x 1200, full hd, wideview, touch), color gris (teclado alemán)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -878,19 +944,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-20L8SFK204-ThinkPad-T480s/dp/B08H2C4RFV/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t480s&amp;qid=1630950345&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-3i-pulgadas/dp/B08D16ZY5Q/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t480s  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lenovo portátil thinkpad t480s | 14" fhd ips | intel core i5-8350u quad-core | 8gb ddr4 | 256gb ssd | win10</t>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (intel celeron n4020, 8gb ram, 256gb ssd, intel uhd graphics 600, sin sistema operativo), color negro - teclado qwerty español</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -900,19 +966,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkPad-pulgadas-i5-8350U-Quad-Core/dp/B079J5LGXZ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t480s&amp;qid=1630950345&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-port%C3%A1til-Operativo/dp/B08TN35QQB/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-9</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t480s  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>lenovo 40ag0090eu negro - base (acoplamiento, lenovo, thinkpad t480s, 90 w, negro)</t>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home), color gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -922,19 +988,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-40AG0090EU-Negro-Acoplamiento-ThinkPad/dp/B079QG111N/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t480s&amp;qid=1630950345&amp;s=electronics&amp;sr=1-6</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-convertible-i5-1135G7/dp/B08TN224K8/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2en1 de 10.3" wuxga (intel pentium silver n5030,8gb ram,128gb emmc,intel uhd graphics 605,windows 10 home en modo s), lenovo digital pen, gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L6GD68B/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo thinkbook 14  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>lenovo thinkbook 14 - ordenador portátil 14" fullhd (intel core i3-1005, 4gb ram, 128gb ssd, uma graphics, windows 10 pro), color gris - teclado qwerty español</t>
+          <t>lenovo ideapad 3 chromebook - ordenador portátil 14" fullhd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -944,19 +1032,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkBook-14-Ordenador-port%C3%A1til/dp/B08C6M6V5H/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1630950372&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Ordenador-Port%C3%A1til/dp/B08WRT63Z2/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-12</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo thinkbook 14  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>lenovo thinkbook 14 g2 itl ci3-11 syst</t>
+          <t>lenovo ideapad duet chromebook - pantalla de 10.1" fullhd (mediatek p60t, 4 gb de ram, almacenamiento de 128 gb, chrome os, wifi+bt) lenovo keyboard pack, azul/gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -966,19 +1054,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-THINKBOOK-ITL-CI3-11-SYST/dp/B08VW11YJL/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1630950372&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/IdeaPad-Duet-Chromebook-CT-X636F-ZA6F0006ES/dp/B08CVR88WM/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-13</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo thinkbook 14  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lenovo thinkbook 14 g2 itl - portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+          <t>lenovo ideapad 5 - ordenador portátil 14" fullhd (amd ryzen 7 5700u, 16gb de ram, 512gb ssd, amd radeon graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -988,19 +1076,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkBook-14-ITL-i5-1135G7/dp/B08T5PB6SZ/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1630950372&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B099KBZY98/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-14</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo thinkbook 14  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>lenovo thinkbook 14s yoga - portátil táctil convertible 14" fullhd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), color azul - teclado qwerty español</t>
+          <t>lenovo ideapad 5 - ordenador portátil 15.6" fullhd (amd ryzen 7 5700u, 16gb ram, 512gb ssd, amd radeon rx vega 8, window 10 home en modo s) gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1010,29 +1098,8191 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-convertible/dp/B092JB6FPY/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1630950372&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Teclado/dp/B08V22W2QS/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-15</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil táctil convertible 11.6" hd (intel celeron n4020, 8gb ram, 128gb emmc, intel uhd graphics 600, chrome os), color azul oscuro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convertible/dp/B08TX2KN7L/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - portátil 11" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Port%C3%A1til-Graphics/dp/B08T19XK41/ref=sr_1_20?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil convertíble 11.6" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os) azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convert%C3%ADble/dp/B08TM1BZY8/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2 en 1 de 10.3" wuxga (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, windows 10 home en modo s), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L66P2D9/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (amd ryzen 7-4700u, 8gb ram, 512gb ssd, amd radeon graphics, windows 10 home), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Port%C3%A1til-Convertible/dp/B08M3LJX5H/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (amd ryzen 5-5500u, 8gb ram, 512gb ssd, amd radeon graphics, windows 10 en modo s), color azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Port%C3%A1til-Convertible/dp/B08V22LPF2/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lenovo ideapad gaming 3 - ordenador portátil gaming 15.6" fullhd (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia gtx1650-4gb, sin sistema operativo), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Gaming-Ordenador-GTX1650-4GB/dp/B08TP6WSKV/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 100  </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cyd 45w netbook cargador-adaptador para lenovo yoga 310-14 510-14 710-13 ideapad 100-14 100-15 100-15iby 100-14iby 100-15ibd 80mj00clge 80mj001aus 80mj0015cf n2940 chromebook 100s-11iby 80yn</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/CYD-Lenovo-Yoga-IdeaPad-N2940-Chromebook/dp/B078PGWMFT/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+100&amp;qid=1631016574&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - portátil 11" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A00477901HK5K9SNCSY3M&amp;url=%2FLenovo-IdeaPad-Chromebook-Port%25C3%25A1til-Graphics%2Fdp%2FB08T19XK41%2Fref%3Dsr_1_2_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dlenovo%2Bideapad%2B3%26qid%3D1631016617%26s%3Delectronics%26sr%3D1-2-spons%26psc%3D1&amp;qualifier=1631016617&amp;id=8566699335352960&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 home), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-i3-1115G4/dp/B08TPDN659/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 5 3500u, 8gb ram, 512gb ssd, amd radeon vega 8 graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B08TN61GJC/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home en modo s), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-port%C3%A1til-i5-1135G7/dp/B08V249BKY/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (intel celeron n4020, 8gb ram, 256gb ssd, intel uhd graphics 600, sin sistema operativo), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-port%C3%A1til-Operativo/dp/B08TN35QQB/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-i5-1135G7/dp/B09491W8D2/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 7 3700u, 8gb ram, 512gb ssd, amd radeon rx vega 10 graphics, windows 10 home) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B08TN1ZSML/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil táctil convertible 11.6" hd (intel celeron n4020, 8gb ram, 128gb emmc, intel uhd graphics 600, chrome os), color azul oscuro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convertible/dp/B08TX2KN7L/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - ordenador portátil 14" fullhd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Ordenador-Port%C3%A1til/dp/B08WRT63Z2/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i3-1115g4, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-i3-1115G4/dp/B096MN3C5W/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - portátil 11" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Port%C3%A1til-Graphics/dp/B08T19XK41/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - portátil 15.6" fullhd (amd athlon 3020e, 8gb ram, 256gb ssd, amd radeon graphics, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Port%C3%A1til-Graphics-Operativo/dp/B08CRWNDGN/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2en1 de 10.3" wuxga (intel pentium silver n5030,8gb ram,128gb emmc,intel uhd graphics 605,windows 10 home en modo s), lenovo digital pen, gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L6GD68B/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 7 5700u, 16gb ram, 512gb ssd, amd radeon graphics, windows 10 home) gris - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Portugu%C3%A9s/dp/B094YCD6FL/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil convertíble 11.6" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os) azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convert%C3%ADble/dp/B08TM1BZY8/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-convertible-i5-1135G7/dp/B08TN224K8/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>lenovo ideapad gaming 3 - ordenador portátil gaming 15.6" fullhd (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1650-4gb, windows 10 home), negro- teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Gaming-Ordenador-GTX1650-4GB/dp/B08TN27JCV/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 14itl6  </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>lenovo ideapad s300 ip 3 14itl6 core_i3-1115g4 4g</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/LENOVO-IDEAPAD-S300-14ITL6-Core_I3-1115G4/dp/B09DGNL66D/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+14itl6&amp;qid=1631016631&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil convertíble 11.6" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os) azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A00224112OV85XYVOOIPQ&amp;url=%2FLenovo-IdeaPad-Flex-Chromebook-convert%25C3%25ADble%2Fdp%2FB08TM1BZY8%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dlenovo%2Bideapad%2B3%2Bchromebook%26qid%3D1631016644%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631016644&amp;id=4017482207390718&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - portátil 11" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A05706741IMH9M21A5HD0&amp;url=%2FLenovo-IdeaPad-Chromebook-Port%25C3%25A1til-Graphics%2Fdp%2FB08T19XK41%2Fref%3Dsr_1_2_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dlenovo%2Bideapad%2B3%2Bchromebook%26qid%3D1631016644%26s%3Delectronics%26sr%3D1-2-spons%26psc%3D1&amp;qualifier=1631016644&amp;id=4017482207390718&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - portátil 11" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Port%C3%A1til-Graphics/dp/B08T19XK41/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+chromebook&amp;qid=1631016644&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - ordenador portátil 14" fullhd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Ordenador-Port%C3%A1til/dp/B08WRT63Z2/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+chromebook&amp;qid=1631016644&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil táctil convertible 11.6" hd (intel celeron n4020, 8gb ram, 128gb emmc, intel uhd graphics 600, chrome os), color azul oscuro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convertible/dp/B08TX2KN7L/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+chromebook&amp;qid=1631016644&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil convertíble 11.6" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os) azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convert%C3%ADble/dp/B08TM1BZY8/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+chromebook&amp;qid=1631016644&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook, pantalla 11.6" hd tn, procesador intel celeron n4000, 64 gb emmc, ram 4 gb, chrome os, onyx black</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-pantalla-procesador/dp/B0913BX9D1/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+chromebook&amp;qid=1631016644&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - pantalla de 14" hd (procesador intel celeron n4020, 64 gb emmc, ram 8 gb, chrome os) - abyss blue</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Pantalla-procesador/dp/B091HMCQC1/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+chromebook&amp;qid=1631016644&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 330  </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 330-15ikb - ordenador portátil 15.6" hd (intel core i3-7020u, ram de 4gb, 500gb de hdd, intel hd graphics 620, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ideapad-330-15IKB-Ordenador-operativo/dp/B07GR2T5JV/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+330&amp;qid=1631016687&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 - ordenador portátil 15.6" fullhd (intel core i7-1165g7, 16gb de ram, 512gb ssd, intel iris xe graphics, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-i7-1165G7-Operativo/dp/B094R8C84P/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 - ordenador portátil 14" fullhd (amd ryzen 7 5700u, 16gb de ram, 512gb ssd, amd radeon graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B099KBZY98/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-convertible-i5-1135G7/dp/B08TN224K8/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 - ordenador portátil 15.6" fullhd (amd ryzen 7 5700u, 16gb ram, 512gb ssd, amd radeon rx vega 8, window 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Teclado/dp/B08V22W2QS/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (amd ryzen 7-4700u, 8gb ram, 512gb ssd, amd radeon graphics, windows 10 home), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Port%C3%A1til-Convertible/dp/B08M3LJX5H/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (amd ryzen 5-5500u, 8gb ram, 512gb ssd, amd radeon graphics, windows 10 en modo s), color azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Port%C3%A1til-Convertible/dp/B08V22LPF2/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 - ordenador portátil 15.6" fullhd (amd ryzen 5 5500u, 16gb ram, 512gb ssd, amd radeon rx vega 7, window 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Teclado/dp/B08V1ZMCRK/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 - ordenador portátil 15.6" fullhd (intel core i7-1165g7, 16gb de ram, 512gb ssd, intel iris xe graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-i7-1165G7/dp/B094RD42NH/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - ordenador portátil convertible 14" fullhd (amd ryzen 7 5700u, 16gb ram, 512gb ssd, amd radeon graphics, windows 10 home), lenovo digital pen, gris - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Ordenador-Convertible/dp/B095PLP9L6/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home en modo s), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-port%C3%A1til-i5-1135G7/dp/B08V249BKY/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 5 3500u, 8gb ram, 512gb ssd, amd radeon vega 8 graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B08TN61GJC/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 home), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-i3-1115G4/dp/B08TPDN659/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 7 3700u, 8gb ram, 512gb ssd, amd radeon rx vega 10 graphics, windows 10 home) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B08TN1ZSML/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 pro - ordenador portátil 14" 2.8k (intel core i5-1135g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Pro-Ordenador-i5-1135G7/dp/B08V22N4WT/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 500  </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 330-15ikb - ordenador portátil 15.6" hd (intel core i3-7020u, ram de 4gb, 500gb de hdd, intel hd graphics 620, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ideapad-330-15IKB-Ordenador-operativo/dp/B07GR2T5JV/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+500&amp;qid=1631016731&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 500  </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 110-15ibr - portátil de 15.6" hd (intel celeron n3060, ram de 4 gb, hdd de 500 gb, intel hd graphics 400, windows 10 home) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ideapad-110-15IBR-Port%C3%A1til-Graphics/dp/B01N2HJ749/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+500&amp;qid=1631016731&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 500  </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 5 3500u, 8gb ram, 512gb ssd, amd radeon vega 8 graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B08TN61GJC/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+500&amp;qid=1631016731&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2en1 de 10.3" wuxga (intel pentium silver n5030,8gb ram,128gb emmc,intel uhd graphics 605,windows 10 home en modo s), lenovo digital pen, gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L6GD68B/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016797&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2 en 1 de 10.3" wuxga (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, windows 10 home en modo s), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L66P2D9/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016797&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3i - tablet 2 en 1 (10,3 pulgadas, 1920 x 1200, full hd, wideview, touch), color gris (teclado alemán)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-3i-pulgadas/dp/B08D16ZY5Q/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016797&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - tablet de 10.3" wuxga (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, windows 10 en modo s, wifi + bluetooth), office 365, gris - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Bluetooth-Portugu%C3%A9s/dp/B08THRNK8G/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016797&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 10,3" pentium n5030 8gb 128gb wuxga w10p</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Pentium-N5030-128GB/dp/B0953Q857C/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016797&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - laptop 128gb, 4gb ram, grey</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ideapad-Duet-Laptop-128GB/dp/B08CKW3RCS/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016797&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2en1 de 10.3" wuxga (intel pentium silver n5030,8gb ram,128gb emmc,intel uhd graphics 605,windows 10 home en modo s), lenovo digital pen, gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L6GD68B/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2 en 1 de 10.3" wuxga (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, windows 10 home en modo s), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L66P2D9/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3i - tablet 2 en 1 (10,3 pulgadas, 1920 x 1200, full hd, wideview, touch), color gris (teclado alemán)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-3i-pulgadas/dp/B08D16ZY5Q/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - tablet de 10.3" wuxga (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, windows 10 en modo s, wifi + bluetooth), office 365, gris - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Bluetooth-Portugu%C3%A9s/dp/B08THRNK8G/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 10,3" pentium n5030 8gb 128gb wuxga w10p</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Pentium-N5030-128GB/dp/B0953Q857C/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - laptop 128gb, 4gb ram, grey</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ideapad-Duet-Laptop-128GB/dp/B08CKW3RCS/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - tablet de 10.3" wuxga (intel pentium silver n5030, 8gb ram, 128gb emmc, windows 10 en modo s, wifi+bt 5.0) lenovo digital pen, gris - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Pentium-Portugu%C3%A9s/dp/B08THRMN66/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet chromebook  </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet chromebook - pantalla de 10.1" fullhd (mediatek p60t, 4 gb de ram, almacenamiento de 128 gb, chrome os, wifi+bt) lenovo keyboard pack, azul/gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/IdeaPad-Duet-Chromebook-CT-X636F-ZA6F0006ES/dp/B08CVR88WM/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+chromebook&amp;qid=1631016825&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet chromebook  </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet chromebook ibrido (2 in 1) 25,6 cm (10.1") 1920 x 1200 pixel</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ZA6F0029IT/dp/B088KMBPCS/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+chromebook&amp;qid=1631016825&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad flex 5 14alc05  </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ideapad flex 5 14alc05 - ordenador portátil convertible, pantalla de 14 pulgadas fullhd touch, procesador amd ryzen 5 5500u, 512 gb ssd, 8 gb ram, lenovo digital pen, windows 10, gris grafito</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/IdeaPad-Flex-14ALC05-convertible-procesador/dp/B08YDGT8X5/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+flex+5+14alc05&amp;qid=1631016853&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad gaming 3  </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>lenovo ideapad gaming 3 - ordenador portátil gaming 15.6" fullhd (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1650-4gb, windows 10 home), negro- teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Gaming-Ordenador-GTX1650-4GB/dp/B08TN27JCV/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+gaming+3&amp;qid=1631016866&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad gaming 3  </t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>lenovo ideapad gaming 3 - ordenador portátil gaming 15.6" fullhd (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia gtx1650-4gb, sin sistema operativo), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Gaming-Ordenador-GTX1650-4GB/dp/B08TP6WSKV/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+gaming+3&amp;qid=1631016866&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad s145  </t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>lenovo ideapad s145-15iil - ordenador portátil</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ideapad-S145-15IIL-Ordenador-port%C3%A1til/dp/B088L9ZW25/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+s145&amp;qid=1631016907&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo l460  </t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l460 intel core i5-6200 cpu 8 gb ram 500 gb hdd win 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-L460-I5-6200-Reacondicionado/dp/B08CKWBTYR/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+l460&amp;qid=1631016960&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd 120hz (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1650 4gb, freedos), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Port%C3%A1til-i7-10750H/dp/B093WZ9BNG/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd (amd ryzen 7 5800h, 16gb ram, 1tb ssd, nvidia rtx3060-6gb, sin sistema operativo), azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-RTX3060-6GB-Operativo/dp/B08V23GNCB/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd, 120hz (amd ryzen 5 5600h, 8gb ram, 512gb ssd, nvidia rtx 3060-6gb, freesync, sin sistema operativo) azul/negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Operativo-Portugu%C3%A9s/dp/B097F6RP6G/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd, 120hz (amd ryzen 5 5600h, 8gb ram, 512gb ssd, nvidia rtx 3060-6gb, freesync, windows 10 home) azul/negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Port%C3%A1til-3060-6GB/dp/B097F55YWF/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 gen 6 - portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, geforce rtx 3060-6gb, wifi 6, sin sistema operativo), azul/negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Gen-Port%C3%A1til-Operativo/dp/B09DT2SXCS/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - portátil gaming 15.6" fullhd 144hz (amd ryzen 7 4800h, 16gb ram, 512gb ssd, nvidia rtx2060-6gb, windows 10), negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Port%C3%A1til-RTX2060-6GB-Portugu%C3%A9s/dp/B08TCJF7NY/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 gen 6- ordenador portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, nvidia geforce rtx 3060-6gb, windows 10 home) azul/negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-Port%C3%A1til-GeForce-3060-6GB/dp/B09BW36DGL/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>lenovo legion phone duel- móvil gaming 6.65'' fullhd, snapdragon 865+ 5g, 12gb ram, 256 gb ufs 3.1, tarjeta gráfica qualcomm adreno 650, android 10, azul [versión es/pt]</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Snapdragon-Tarjeta-gr%C3%A1fica-Qualcomm/dp/B08L5CBWWL/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>lenovo legion phone duel- móvil gaming 6.65'' fullhd, snapdragon 865+ 5g, 12gb ram, 256 gb ufs 3.1, tarjeta gráfica qualcomm adreno 650, android 10, negro [versión es/pt]</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Snapdragon-Tarjeta-gr%C3%A1fica-Qualcomm/dp/B08L5FJL6X/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>lenovo legion 7 - portátil gaming 15.6" fullhd 240hz (intel core i7-10750h, 16gb ram, 512gb ssd, geforce rtx 2080 super max-q 8gb, sin sistema operativo), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Port%C3%A1til-i7-10750H-Operativo/dp/B08DD2GR9M/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd 120hz (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1650 4gb, freedos), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Port%C3%A1til-i7-10750H/dp/B093WZ9BNG/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd (amd ryzen 7 5800h, 16gb ram, 1tb ssd, nvidia rtx3060-6gb, sin sistema operativo), azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-RTX3060-6GB-Operativo/dp/B08V23GNCB/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd, 120hz (amd ryzen 5 5600h, 8gb ram, 512gb ssd, nvidia rtx 3060-6gb, freesync, sin sistema operativo) azul/negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Operativo-Portugu%C3%A9s/dp/B097F6RP6G/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd, 120hz (amd ryzen 5 5600h, 8gb ram, 512gb ssd, nvidia rtx 3060-6gb, freesync, windows 10 home) azul/negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Port%C3%A1til-3060-6GB/dp/B097F55YWF/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 gen 6 - portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, geforce rtx 3060-6gb, wifi 6, sin sistema operativo), azul/negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Gen-Port%C3%A1til-Operativo/dp/B09DT2SXCS/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - portátil gaming 15.6" fullhd 144hz (amd ryzen 7 4800h, 16gb ram, 512gb ssd, nvidia rtx2060-6gb, windows 10), negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Port%C3%A1til-RTX2060-6GB-Portugu%C3%A9s/dp/B08TCJF7NY/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 gen 6- ordenador portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, nvidia geforce rtx 3060-6gb, windows 10 home) azul/negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-Port%C3%A1til-GeForce-3060-6GB/dp/B09BW36DGL/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>lenovo legion phone duel- móvil gaming 6.65'' fullhd, snapdragon 865+ 5g, 12gb ram, 256 gb ufs 3.1, tarjeta gráfica qualcomm adreno 650, android 10, azul [versión es/pt]</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Snapdragon-Tarjeta-gr%C3%A1fica-Qualcomm/dp/B08L5CBWWL/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>lenovo legion phone duel- móvil gaming 6.65'' fullhd, snapdragon 865+ 5g, 12gb ram, 256 gb ufs 3.1, tarjeta gráfica qualcomm adreno 650, android 10, negro [versión es/pt]</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Snapdragon-Tarjeta-gr%C3%A1fica-Qualcomm/dp/B08L5FJL6X/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>lenovo legion 7 - portátil gaming 15.6" fullhd 240hz (intel core i7-10750h, 16gb ram, 512gb ssd, geforce rtx 2080 super max-q 8gb, sin sistema operativo), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Port%C3%A1til-i7-10750H-Operativo/dp/B08DD2GR9M/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 7  </t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>lenovo legion 7 - portátil gaming 15.6" fullhd 240hz (intel core i7-10750h, 16gb ram, 512gb ssd, geforce rtx 2080 super max-q 8gb, sin sistema operativo), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Port%C3%A1til-i7-10750H-Operativo/dp/B08DD2GR9M/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+7&amp;qid=1631017001&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 7  </t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 gen 6 - portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, geforce rtx 3060-6gb, wifi 6, sin sistema operativo), azul/negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Gen-Port%C3%A1til-Operativo/dp/B09DT2SXCS/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+7&amp;qid=1631017001&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 7  </t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd 120hz (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1650 4gb, freedos), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Port%C3%A1til-i7-10750H/dp/B093WZ9BNG/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+7&amp;qid=1631017001&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 7  </t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 gen 6- ordenador portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, nvidia geforce rtx 3060-6gb, windows 10 home) azul/negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-Port%C3%A1til-GeForce-3060-6GB/dp/B09BW36DGL/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+7&amp;qid=1631017001&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 7  </t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd (amd ryzen 7 5800h, 16gb ram, 1tb ssd, nvidia rtx3060-6gb, sin sistema operativo), azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-RTX3060-6GB-Operativo/dp/B08V23GNCB/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+7&amp;qid=1631017001&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 7  </t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - portátil gaming 15.6" fullhd 144hz (amd ryzen 7 4800h, 16gb ram, 512gb ssd, nvidia rtx2060-6gb, windows 10), negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Port%C3%A1til-RTX2060-6GB-Portugu%C3%A9s/dp/B08TCJF7NY/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+7&amp;qid=1631017001&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t410  </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad mini dock series 3type 4337sin llave para thinkpad t400s, t410, t410i, t410s, t410si, t420, t420i, t420s, t420si, t510, t510i, a-ware</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-4337sin-T410si-T420si/dp/B010WMBL2Q/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t410&amp;qid=1631017014&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t410  </t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>mavis laven teclado de repuesto, piezas de reparación de teclado compatibles con lenovo ibm t410 / t410s / t400s / t520 / t420 / x220 / t510 / w510 laptop</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Mavis-Laven-Repuesto-reparaci%C3%B3n-compatibles/dp/B07VWMVJKF/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t410&amp;qid=1631017014&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t410  </t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>vbestlife teclado de repuesto para computadora portátil apto para lenovo para ibm t410/t410s/t400s/t520/t420/x220/t510/w510 series notebook</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Vbestlife-Repuesto-computadora-port%C3%A1til-Notebook/dp/B086W651RP/ref=sr_1_31?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t410&amp;qid=1631017014&amp;s=electronics&amp;sr=1-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t430  </t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>portátil lenovo thinkpad t430, intel core i5-3320m, pantalla 14", webcam, win10 pro (reacondicionado)… (t430 - ram 8gb - ssd 128gb)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-Lenovo-ThinkPad-T430-reacondicionado/dp/B0915YJCM5/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t430&amp;qid=1631017030&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t430  </t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t430 core i5 16gb 240gb ssd dvd wifi webcam usb 3.0 windows 10 professional 64-bit laptop pc (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Professional-Certified-Refurbished/dp/B07CSSF72G/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t430&amp;qid=1631017030&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t440p  </t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440p (20aws0q300) portátil de 14 pulgadas intel core i5 4210m / procesador de 2,6 ghz con turbo hasta 3,2 ghz, 4 gb de ram, 320 gb de disco duro, resolución 1366 x 768, peso ligero 1,9 kg, wifi, sin cámara web, lector de tarjetas inteligentes, windows 7 profesional</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-T440p-768-resoluci%C3%B3n-inteligentes-Professional/dp/B010FRL1VE/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t440p&amp;qid=1631017044&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450  </t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>portátil lenovo thinkpad t450 | intel core i5 | disco ssd | 14" hd+ | webcam | win10 pro (reacondicionado) (ram 8 gb – ssd 240 gb)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-Lenovo-Thinkpad-T450-reacondicionado/dp/B08TX5MTL1/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1631017058&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450  </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>notebook lenovo thinkpad t450, intel core i5-5300u, ram 8gb, ssd 256gb, display 14" hd, webcam, win10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Bluetooth-Ultrabook-certificado-Reacondicionado/dp/B08QQ9SQ5B/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1631017058&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450  </t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 intel core i5-5300u 8gb 128gb 1366x768 webcam bt win 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-i5-5300U-Reacondicionado/dp/B08J44PV16/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1631017058&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450  </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 i5-5000u / ram: ddr3 8gb / ssd 480gb / display: 14pulgadas / windows 10pro / no dvd / grado a (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-i5-5000U-Reacondicionado/dp/B07RGQ5GV8/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1631017058&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450  </t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>lenovo ultrabook de negocios thinkpad t450 14" led: base i54300u 8gb 500 gb 7200 rpm 14" windows 7 professional actualizable a ganar 8 profesional bluetooth lector de huella digital.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ultrabook-negocios-ThinkPad-T450/dp/B015FJCXJG/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1631017058&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450  </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 negro, grafito portátil 35,6 cm (14") 1366 x 768 pixeles 2,2 ghz 5ª generación de procesadores intel® core™ i5 i5-5200u - ordenador portátil (5ª generación de procesadores intel® core™ i5, 2,2 ghz, 35,6 cm (14"), 1366 x 768 pixeles, 8 gb, 256 gb)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-Ordenador-port%C3%A1til/dp/B00U2ZXT6K/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1631017058&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450s  </t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450s 2.3ghz i5-5300u 14" 1920 x 1080pixeles 3g 4g negro - ordenador portátil (i5-5300u, windows 7 professional, 3+3, 64 bits, windows 10 pro, intel core i5-5xxx)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20BX0047UK-ThinkPad-T450s/dp/B017LX8YCE/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450s&amp;qid=1631017072&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450s  </t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450s&amp;qid=1631017072&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t480s  </t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>lenovo 40ag0090eu negro - base (acoplamiento, lenovo, thinkpad t480s, 90 w, negro)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-40AG0090EU-Negro-Acoplamiento-ThinkPad/dp/B079QG111N/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t480s&amp;qid=1631017087&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 13s  </t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 13s g2 itl - ordenador portátil 13.3" qxga (intel core i7-1165g7, 16gb ram, 1tb ssd, intel iris xe graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-13s-ITL-Ordenador/dp/B08W1Y4JSR/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+13s&amp;qid=1631017101&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 13s  </t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 13s gris portátil 33,8 cm (13.3") 1920 x 1080 pixeles intel core i5 de 10ma generación 16 gb ddr4-sdram 512 gb ssd windows 10 pro thinkbook 13s, intel core i5 de</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-Port%C3%A1til-Generaci%C3%B3n-DDR4-SDRAM/dp/B08287QRGG/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+13s&amp;qid=1631017101&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 13s  </t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 13s iwl - ordenador portátil 13.3" fullhd (intel core i5-8265u, 8gb ram, 256gb ssd, intel uhd graphics 620, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-13s-Ordenadores-Portatiles-Gris/dp/B07TXR7BMG/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+13s&amp;qid=1631017101&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 13s  </t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 13s gen2 (20v90008fr)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-13s-Gen2-20V90008FR/dp/B08LSHZ6LG/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+13s&amp;qid=1631017101&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
           <t xml:space="preserve">lenovo thinkbook 14  </t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 - ordenador portátil 14" fullhd (intel core i3-1005, 4gb ram, 128gb ssd, uma graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14-Ordenador-port%C3%A1til/dp/B08C6M6V5H/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1631017114&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14  </t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl ci3-11 syst</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKBOOK-ITL-CI3-11-SYST/dp/B08VW11YJL/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1631017114&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14  </t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl - portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14-ITL-i5-1135G7/dp/B08T5PB6SZ/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1631017114&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14  </t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14s yoga - portátil táctil convertible 14" fullhd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), color azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-convertible/dp/B092JB6FPY/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1631017114&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14  </t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
         <is>
           <t>lenovo thinkbook 14s yoga itl - portátil táctil 14" fullhd (inel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-ITL/dp/B08TBBKNDT/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1630950372&amp;s=electronics&amp;sr=1-25</t>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-ITL/dp/B08TBBKNDT/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1631017114&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14  </t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14s yoga itl - portátil táctil 14" fullhd (inel core i5-1135g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-ITL/dp/B0924F8V4G/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1631017114&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl - portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14-ITL-i5-1135G7/dp/B08T5PB6SZ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14+g2+itl&amp;qid=1631017128&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl ci3-11 syst</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKBOOK-ITL-CI3-11-SYST/dp/B08VW11YJL/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14+g2+itl&amp;qid=1631017128&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl - portátil 14" fullhd (intel core i5-1135g7, 16gb ram , 512gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14-ITL-i5-1135G7/dp/B08W8R3J62/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14+g2+itl&amp;qid=1631017128&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14 iil  </t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 iil - ordenador portátil, pantalla de 14 pulgadas full hd ips (procesador intel core i5-1035g1, 256 gb ssd, ram 8 gb, windows 10, mineral grey</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkbook-IIL-Ordenador-procesador/dp/B08TM7S81D/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14+iil&amp;qid=1631017141&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14 iil  </t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14-iil - 20sl00d3sp</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20SL00D3SP-ThinkBook-14-IIL/dp/B08FCN4CB1/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14+iil&amp;qid=1631017141&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14s yoga  </t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14s yoga - portátil táctil convertible 14" fullhd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), color azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-convertible/dp/B092JB6FPY/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14s+yoga&amp;qid=1631017154&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14s yoga  </t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14s yoga itl - portátil táctil 14" fullhd (inel core i5-1135g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-ITL/dp/B0924F8V4G/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14s+yoga&amp;qid=1631017154&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14s yoga  </t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14s yoga itl - portátil táctil 14" fullhd (inel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-ITL/dp/B08TBBKNDT/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14s+yoga&amp;qid=1631017154&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15  </t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 g2 itl - portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-ITL-i5-1135G7/dp/B08T64TFSK/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15&amp;qid=1631017168&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15  </t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil ci3-1005 syst</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20SM007GSP-ThinkBook-15-IIL/dp/B08FCQYC3Q/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15&amp;qid=1631017168&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15  </t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>notebook lenovo thinkbook 15-iil i3-1005g1 8gb ddr4 512ssd</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Notebook-Lenovo-ThinkBook-15-IIL-i3-1005G1/dp/B092DSTT8W/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15&amp;qid=1631017168&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15  </t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil - 20sm002lsp</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-IIL-20SM002LSP/dp/B086T4DJP6/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15&amp;qid=1631017168&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15  </t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 gris portátil 39,6 cm (15.6") 1920 x 1080 pixeles intel® core? i3 de 10ma generación 8 gb ddr4-sdram 256 gb</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-Port%C3%A1til-Generaci%C3%B3n-DDR4-SDRAM/dp/B083Q95HHB/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15&amp;qid=1631017168&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15  </t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 g2 itl - portátil 15.6" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-ITL-i3-1115G4/dp/B08YRRNSNF/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15&amp;qid=1631017168&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 g2 itl - portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-ITL-i5-1135G7/dp/B08T64TFSK/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+g2+itl&amp;qid=1631017181&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 g2 itl - portátil 15.6" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-ITL-i3-1115G4/dp/B08YRRNSNF/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+g2+itl&amp;qid=1631017181&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 iil  </t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>notebook lenovo thinkbook 15-iil i3-1005g1 8gb ddr4 512ssd</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Notebook-Lenovo-ThinkBook-15-IIL-i3-1005G1/dp/B092DSTT8W/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+iil&amp;qid=1631017193&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 iil  </t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil ci3-1005 syst</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20SM007GSP-ThinkBook-15-IIL/dp/B08FCQYC3Q/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+iil&amp;qid=1631017193&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 iil  </t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil - 20sm002lsp</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-IIL-20SM002LSP/dp/B086T4DJP6/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+iil&amp;qid=1631017193&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 iil  </t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil i3-1005g1/8gb/256ssd/fhd/mate/w10pro</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-IIL-i3-1005G1-256SSD/dp/B091CW3PQN/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+iil&amp;qid=1631017193&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 iil  </t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil intel core i3-1005g1 15.6p nt 8gb 256gb ssd pcie nvme intel uhd graphics wifi6ax22560+bt w10p64 1y depot</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/LENOVO-ThinkBook-i3-1005G1-Graphics-WiFi6AX22560/dp/B08528H627/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+iil&amp;qid=1631017193&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 iil  </t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil g2 i5-1135g7/16gb/512ssd/fhd/mate/w10pro</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-IIL-i5-1135G7-512SSD/dp/B08PMJ8Y94/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+iil&amp;qid=1631017193&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15p  </t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>lenovo nb thinkbook 15p 20v30007ix 15.6" ips i5-10300h 16gb ssd512gb nvidia gtx1650 4gb no dvd w10p</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-20V30007IX-i5-10300H-SSD512GB/dp/B091KRQ9YZ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15p&amp;qid=1631017208&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook g2 itl  </t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 g2 itl - portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-ITL-i5-1135G7/dp/B08T64TFSK/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+g2+itl&amp;qid=1631017220&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook g2 itl  </t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl - portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14-ITL-i5-1135G7/dp/B08T5PB6SZ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+g2+itl&amp;qid=1631017220&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook g2 itl  </t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl ci3-11 syst</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKBOOK-ITL-CI3-11-SYST/dp/B08VW11YJL/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+g2+itl&amp;qid=1631017220&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook g2 itl  </t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 13s g2 itl - ordenador portátil 13.3" qxga (intel core i7-1165g7, 16gb ram, 1tb ssd, intel iris xe graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-13s-ITL-Ordenador/dp/B08W1Y4JSR/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+g2+itl&amp;qid=1631017220&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook g2 itl  </t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 g2 itl - portátil 15.6" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-ITL-i3-1115G4/dp/B08YRRNSNF/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+g2+itl&amp;qid=1631017220&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 - ordenador portátil 15.6" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Ordenador-i5-10210U/dp/B08FCPHVTN/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 - portátil 15.6" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20RD001FSP-ThinkPad-E15-20RD001FSP/dp/B083M9YBBL/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l13 gen 2 - ordenador portátil 13.3" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L13-Gen-Ordenador/dp/B08PL8NFST/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e14 - ordenador portátil 14" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E14-Negro-1920x1080/dp/B0836Q84CN/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 - ordenador portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Gen-Ordenador/dp/B08VW6PXBG/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e14 - portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E14-Port%C3%A1til-i5-1135G7/dp/B08QD3MDTF/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 gen 1 - portátil 15" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20S6000SSP-ThinkPad-T15-Gen1-20S6000SSP/dp/B08FMSVT6Q/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 nano gen 1 - portátil 13" 2k (intel core i5-1130g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Nano-Gen-i5-1130G7/dp/B08WCB7ZTJ/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 carbon gen 9 - portátil 14" wuxga (intel core i5-1135g7, 8gb ram, 256gb ssd, integrated intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Carbon-Gen-Integrated/dp/B096YTJ187/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l14 gen 1 - portátil 14" fullhd (intel core i7-10510u, 16gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L14-Gen-i7-10510U/dp/B08ZLGGKPZ/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 amd - 20t8000vsp</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-E15-Gen-Amd/dp/B08CH1LXXH/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad 13  </t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 nano gen 1 - portátil 13" 2k (intel core i5-1130g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Nano-Gen-i5-1130G7/dp/B08WCB7ZTJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+13&amp;qid=1631017249&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e14  </t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e14 - ordenador portátil 14" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E14-Negro-1920x1080/dp/B0836Q84CN/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e14&amp;qid=1631017263&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e14  </t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e14 - portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E14-Port%C3%A1til-i5-1135G7/dp/B08QD3MDTF/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e14&amp;qid=1631017263&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e14  </t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e14 negro portátil 35,6 cm (14") 1920 x 1080 pixeles intel core i5 de 10ma generación 16 gb ddr4-sdram 512 gb ssd windows 10 pro thinkpad e14, intel core i5 de</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Port%C3%A1til-Generaci%C3%B3n-DDR4-SDRAM/dp/B083M8VX97/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e14&amp;qid=1631017263&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e14  </t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e14 - portátil 14" fullhd (intel core i3-10110u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20RA000XSP-ThinkPad-E14-20RA000XSP/dp/B08FCP6B3J/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e14&amp;qid=1631017263&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15  </t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 - ordenador portátil 15.6" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Ordenador-i5-10210U/dp/B08FCPHVTN/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15&amp;qid=1631017289&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15  </t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 - portátil 15.6" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20RD001FSP-ThinkPad-E15-20RD001FSP/dp/B083M9YBBL/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15&amp;qid=1631017289&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15  </t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 - ordenador portátil 15.6" fullhd (intel core i5-1135g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Gen-Ordenador/dp/B08VVWQVB7/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15&amp;qid=1631017289&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15  </t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 - ordenador portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Gen-Ordenador/dp/B08VW6PXBG/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15&amp;qid=1631017289&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15  </t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 amd - 20t8000vsp</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-E15-Gen-Amd/dp/B08CH1LXXH/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15&amp;qid=1631017289&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15 gen 2  </t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 - ordenador portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Gen-Ordenador/dp/B08VW6PXBG/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15+gen+2&amp;qid=1631017304&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15 gen 2  </t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 - ordenador portátil 15.6" fullhd (intel core i5-1135g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Gen-Ordenador/dp/B08VVWQVB7/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15+gen+2&amp;qid=1631017304&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15 gen 2  </t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 amd - 20t8000vsp</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-E15-Gen-Amd/dp/B08CH1LXXH/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15+gen+2&amp;qid=1631017304&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15 gen 2  </t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 intel core i7-1165g7 notebook 39,6 cm (15,6") 16gb ram, 512gb ssd, mx450, full hd, win10 pro</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Intel-i7-1165G7-Notebook/dp/B08PMMJXGK/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15+gen+2&amp;qid=1631017304&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e460  </t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e460 2.3ghz i5-6200u 14" 1366 x 768pixeles negro - ordenador portátil (portátil, negro, concha, acrilonitrilo butadieno estireno (abs), de plástico, oficina en casa, small business, i5-6200u)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-2-3GHz-i5-6200U-768Pixeles/dp/B0178JBGDK/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e460&amp;qid=1631017331&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e540  </t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>zhangxia teclados de reemplazo teclado de la versión ru para lenovo thinkpad p50s t560 w540 t540p w541 t550 w550s l540 l560 e531 e540 accesorios portátiles</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Zhangxia-Teclados-reemplazo-Accesorios-port%C3%A1tiles/dp/B09CTF6SNJ/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e540&amp;qid=1631017358&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e570  </t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>p prettyia para lenovo thinkpad e570 e575 e570c teclado</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Prettyia-Lenovo-Thinkpad-E570C-Teclado/dp/B089MBG32Y/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e570&amp;qid=1631017371&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad edge e330  </t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>pantalla 13.3" led para lenovo thinkpad edge e330 3354-9rg 40 pin para portatil - juanio -</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Pantalla-Lenovo-ThinkPad-3354-9RG-portatil/dp/B095HL3SRG/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+edge+e330&amp;qid=1631017409&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad edge e530  </t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad edge e530 nosotros inglés teclado 04 x 0264 (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-E530-nosotros-teclado-Reacondicionado/dp/B0892QXVWJ/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+edge+e530&amp;qid=1631017422&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad edge e530  </t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>lenovo 45 n1053 ion de 11.1 v batería recargable – baterías (ion de litio), notebook/tablet pc, 11,1 v, 62 wh, negro, thinkpad edge e430, e435, thinkpad edge e530, e535</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-45-N1053-Ion-recargable-Bater%C3%ADas-Notebook/dp/B00FDMO1A0/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+edge+e530&amp;qid=1631017422&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad edge e540  </t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>globalsmart batería para portátil alta capacidad para lenovo thinkpad edge e540 6 celdas negro</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Globalsmart-Capacidad-ThinkPad-Edge-E540/dp/B07PVNBB98/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+edge+e540&amp;qid=1631017462&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l13  </t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l13 gen 2 - ordenador portátil 13.3" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L13-Gen-Ordenador/dp/B08PL8NFST/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l13&amp;qid=1631017475&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l13 gen 2  </t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l13 gen 2 - ordenador portátil 13.3" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L13-Gen-Ordenador/dp/B08PL8NFST/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l13+gen+2&amp;qid=1631017488&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l14  </t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l14 gen 1 - portátil 14" fullhd (intel core i7-10510u, 16gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L14-Gen-i7-10510U/dp/B08ZLGGKPZ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l14&amp;qid=1631017515&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l14  </t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l14 gen 1 - portátil 14" fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L14-Gen-i5-10210U/dp/B08XJ31XKD/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l14&amp;qid=1631017515&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l14  </t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l14 gen1 amd - 20u50007sp</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-L14-Gen1-Amd/dp/B08FJFKSG4/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l14&amp;qid=1631017515&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l14  </t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l14 g2 intel core i5-1135g7 notebook 35,6cm(14") 8gb ram, 256gb ssd, full hd, win 10 pro, 4g</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Intel-i5-1135G7-Notebook/dp/B096VZHCTJ/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l14&amp;qid=1631017515&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l14  </t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l14 gen1 amd - 20u50008sp</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-L14-Gen1-Amd/dp/B08FJGDYW3/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l14&amp;qid=1631017515&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l15  </t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l15 gen 1 - portátil 15.6" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Port%C3%A1til-Generaci%C3%B3n-Ddr4-Sdram/dp/B08BLBFKZJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l15&amp;qid=1631017528&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l15  </t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l15 gen 1 - portátil 15.6 fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-L15-Gen1-20U30015Sp/dp/B08CHGV72R/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l15&amp;qid=1631017528&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l380  </t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l380 laptop de 13.3" - core i3 cpu a 2,2 ghz, 4 gb de ram, 128 gb ssd, windows 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L380-Laptop-13-3/dp/B09BMBPF72/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l380&amp;qid=1631017541&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l420  </t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>disco duro ssd de 960 gb compatible con lenovo thinkpad l420 t420s x100e sl300 – componente alternativo</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Disco-compatible-Lenovo-ThinkPad-T420s/dp/B09CDYN2MM/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l420&amp;qid=1631017583&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l440  </t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad pro dock 04w3948 - base de carga para thinkpad t440, t440s, l540, t440p, t540p, l440, x240, sin fuente de alimentación</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-04-W3948-fuente-alimentaci%C3%B3n/dp/B013U28Z06/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l440&amp;qid=1631017612&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l450  </t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l450&amp;qid=1631017626&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l460  </t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l460 intel core i5-6200 cpu 8 gb ram 500 gb hdd win 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-L460-I5-6200-Reacondicionado/dp/B08CKWBTYR/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l460&amp;qid=1631017640&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l470  </t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t470, t470s, l470 y t420 variación (reacondicionado) negro thinkpad t470 - core i5</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Variaci%C3%B3n-reacondicionado-ThinkPad/dp/B07RZ85JT9/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l470&amp;qid=1631017654&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l540  </t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l540&amp;qid=1631017694&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l570  </t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l570 15,6 pulgadas 1920 × 1080 full hd intel core i5 256 gb ssd disco duro 8 gb de memoria win 10 pro webcam umts lte portátil ultrabook (certificado y revisado)</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Pulgadas-Ultrabook-Certificado/dp/B082B57XNG/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l570&amp;qid=1631017721&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad p50  </t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad p50 2.7ghz i7-6820hq 15.6" 3840 x 2160pixels black (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-i7-6820HQ-2160pixels-Reacondicionado/dp/B08JTXFDR1/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+p50&amp;qid=1631017735&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad p50s  </t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>zhangxia teclados de reemplazo teclado de la versión ru para lenovo thinkpad p50s t560 w540 t540p w541 t550 w550s l540 l560 e531 e540 accesorios portátiles</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Zhangxia-Teclados-reemplazo-Accesorios-port%C3%A1tiles/dp/B09CTF6SNJ/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+p50s&amp;qid=1631017748&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t14  </t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t14 gen1-20s00011sp</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20S00011SP-Thinkpad-T14-Gen1-20S00011Sp/dp/B08CHNVSGD/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t14&amp;qid=1631017774&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 gen 1 - portátil 15" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20S6000SSP-ThinkPad-T15-Gen1-20S6000SSP/dp/B08FMSVT6Q/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017787&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 (gen 1) - ordenador portátil 15" fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20S6000NSP-ThinkPad-T15-Gen1-20S6000NSP/dp/B08CN83KZT/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017787&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15p gen 1 - portátil 15.6 fullhd (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia geforce gtx 1050, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20TN0004SP-THINKPAD-T15P-CI7-10750H/dp/B08LKV4XRR/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017787&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 15.6in i5-10210u</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKPAD-T15-15-6IN-I5-10210U/dp/B08CMY7F3V/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017787&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>lenovo ts/thinkpad t15 g1/i5/8gb/256gb/w10p- portátil ts/thinkpad t15 g1/i5/8gb/256gb/w10p-, portátil</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-256GB-W10P-Port%C3%A1til/dp/B08B4JPDS5/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017787&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 gen 1 - portátil 15" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20S6000SSP-ThinkPad-T15-Gen1-20S6000SSP/dp/B08FMSVT6Q/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017800&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 (gen 1) - ordenador portátil 15" fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20S6000NSP-ThinkPad-T15-Gen1-20S6000NSP/dp/B08CN83KZT/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017800&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15p gen 1 - portátil 15.6 fullhd (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia geforce gtx 1050, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20TN0004SP-THINKPAD-T15P-CI7-10750H/dp/B08LKV4XRR/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017800&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 15.6in i5-10210u</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKPAD-T15-15-6IN-I5-10210U/dp/B08CMY7F3V/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017800&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t410  </t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t410 - ordenador portátil (dvd-rw, touchpad, windows 7 professional, negro, hd audio, intel)</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T410-Ordenador-Professional/dp/B003RYUSE4/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t410&amp;qid=1631017827&amp;s=electronics&amp;sr=1-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t410s  </t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad mini dock series 3type 4337sin llave para thinkpad t400s, t410, t410i, t410s, t410si, t420, t420i, t420s, t420si, t510, t510i, a-ware</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-4337sin-T410si-T420si/dp/B010WMBL2Q/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t410s&amp;qid=1631017841&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420  </t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t420 i5-2520m 2.5ghz 8gb 128gb ssd webcam windows 10 professional 64-bit (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Professional-Certified-Refurbished/dp/B01K7GK5MO/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420&amp;qid=1631017855&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420  </t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t420 - ordenador portátil (portátil, dvd±rw, thinkpad ultranav, windows 7 professional, ión de litio, 64-bit)</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T420-Ordenador-Professional/dp/B006Y7DAAA/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420&amp;qid=1631017855&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420  </t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t470, t470s, l470 y t420 variación (reacondicionado) negro thinkpad t470 - core i5</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Variaci%C3%B3n-reacondicionado-ThinkPad/dp/B07RZ85JT9/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420&amp;qid=1631017855&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420  </t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad mini dock series 3type 4337sin llave para thinkpad t400s, t410, t410i, t410s, t410si, t420, t420i, t420s, t420si, t510, t510i, a-ware</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-4337sin-T410si-T420si/dp/B010WMBL2Q/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420&amp;qid=1631017855&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420  </t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t420 - ordenador portátil (gigabit ethernet, dvd-rw, thinkpad ultranav, windows 7 professional, ión de litio, negro)</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T420-Ordenador-Professional/dp/B00AHUD2L2/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420&amp;qid=1631017855&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420  </t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t420 - ordenador portátil de 14 pulgadas, color negro (intel core i5-2520m / 2,50 ghz, 8 gb de ram, disco duro de 1 tb, grabadora de dvd, webcam, windows 7 professional)</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-port%C3%A1til-grabadora-Profesional/dp/B015RO2CAY/ref=sr_1_31?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420&amp;qid=1631017855&amp;s=electronics&amp;sr=1-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420s  </t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad mini dock series 3type 4337sin llave para thinkpad t400s, t410, t410i, t410s, t410si, t420, t420i, t420s, t420si, t510, t510i, a-ware</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-4337sin-T410si-T420si/dp/B010WMBL2Q/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420s&amp;qid=1631017870&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t430  </t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t430 core i5 16gb 240gb ssd dvd wifi webcam usb 3.0 windows 10 professional 64-bit laptop pc (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Professional-Certified-Refurbished/dp/B07CSSF72G/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t430&amp;qid=1631017883&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t430  </t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>portátil lenovo thinkpad t430, intel core i5-3320m, pantalla 14", webcam, win10 pro (reacondicionado)… (t430 - ram 8gb - ssd 128gb)</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-Lenovo-ThinkPad-T430-reacondicionado/dp/B0915YJCM5/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t430&amp;qid=1631017883&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t430s  </t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>sunmall teclado de repuesto para ordenador portátil con puntero (sin retroiluminación) compatible con lenovo ibm thinkpad t430 t430s t430i x230 x230t x230i t530 w530 (no compatible con t430u x230s)</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/retroiluminaci%C3%B3n-X230-X230I-T430-T430s-L430-T530-T530i-W530-L530-nosotros/dp/B01K4GPGEY/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t430s&amp;qid=1631017898&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 business notebook, procesador intel i5 2 x 1,9 ghz, memoria ram de 8 gb, disco duro de 480 gb, pantalla de 14 pulgadas, hd, 1600 x 900, cam, windows 10 pro, r40t (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T440-r40t-8GB/dp/B07H1KZ71D/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 business notebook, procesador intel i5 2 x 1,9 ghz, memoria ram de 8 gb, disco duro de 480 gb, pantalla de 14 pulgadas, 1366 x 768, cam, windows 10 pro, 1h08 (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T440-1h08-8GB/dp/B07GT3G34N/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>lenovo t440 14-inch thinkpad laptop (intel core i5 1.6 ghz processor, 4 gb ddr3 ram, 500 gb hdd, front camera, windows 7 professional 64-bit)</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/14-inch-ThinkPad-Processor-Windows-Professional/dp/B00GUCI5TA/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 4 gb 320 gb</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-T440-4-GB-320-GB/dp/B07DH7J9WR/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 business notebook, procesador intel i5 2 x 1,9 ghz, memoria ram de 8 gb, ssd de 240 gb, pantalla de 14 pulgadas, 1366 x 768, cam, windows 10 pro, 1h08 (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T440-1h08-8GB/dp/B07GT3LV3V/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 - ordenador portátil (ultrabook, windows 8 pro , ión de litio, 64-bit, negro, concha)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T440-Ordenador-Ultrabook/dp/B00YGLF6TY/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 4 gb 160 gb</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-T440-4-GB-160-GB/dp/B07DH4WVDS/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 - ordenador portátil de 14" intel core i5-4300u cpu 4 gb ram 128 gb ssd win 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKPAD-T440-Ordenador-Reacondicionado/dp/B08G1R3VZV/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 laptop, i5-4300u, 1.9ghz, 256gb solid state drive, 8gb ram, with windows 10 professional (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Professional-Certified-Refurbished/dp/B06XDNSB36/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440p  </t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440p (20aws0q300) portátil de 14 pulgadas intel core i5 4210m / procesador de 2,6 ghz con turbo hasta 3,2 ghz, 4 gb de ram, 320 gb de disco duro, resolución 1366 x 768, peso ligero 1,9 kg, wifi, sin cámara web, lector de tarjetas inteligentes, windows 7 profesional</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-T440p-768-resoluci%C3%B3n-inteligentes-Professional/dp/B010FRL1VE/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440p&amp;qid=1631017926&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440p  </t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440p&amp;qid=1631017926&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440s  </t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>portátil ultrabook lenovo thinkpad t440s - intel icore i5 4300u 1,9 ghz x 2 - ram 8 gb - hd 250 ssd - led 14 in 1600 x 900 - windows 10 pro - (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-Ultrabook-Lenovo-ricondizionato-garantito/dp/B07H8DVGWF/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440s&amp;qid=1631017941&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440s  </t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440s&amp;qid=1631017941&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>portátil lenovo thinkpad t450 | intel core i5 | disco ssd | 14" hd+ | webcam | win10 pro (reacondicionado) (ram 8 gb – ssd 240 gb)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-Lenovo-Thinkpad-T450-reacondicionado/dp/B08TX5MTL1/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>notebook lenovo thinkpad t450, intel core i5-5300u, ram 8gb, ssd 256gb, display 14" hd, webcam, win10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Bluetooth-Ultrabook-certificado-Reacondicionado/dp/B08QQ9SQ5B/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 i5-5000u / ram: ddr3 8gb / ssd 480gb / display: 14pulgadas / windows 10pro / no dvd / grado a (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-i5-5000U-Reacondicionado/dp/B07RGQ5GV8/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 intel core i5-5300u 8gb 128gb 1366x768 webcam bt win 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-i5-5300U-Reacondicionado/dp/B08J44PV16/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>lenovo ultrabook de negocios thinkpad t450 14" led: base i54300u 8gb 500 gb 7200 rpm 14" windows 7 professional actualizable a ganar 8 profesional bluetooth lector de huella digital.</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ultrabook-negocios-ThinkPad-T450/dp/B015FJCXJG/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 negro, grafito portátil 35,6 cm (14") 1366 x 768 pixeles 2,2 ghz 5ª generación de procesadores intel® core™ i5 i5-5200u - ordenador portátil (5ª generación de procesadores intel® core™ i5, 2,2 ghz, 35,6 cm (14"), 1366 x 768 pixeles, 8 gb, 256 gb)</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-Ordenador-port%C3%A1til/dp/B00U2ZXT6K/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 - ordenador portátil de 14 pulgadas hd+ (intel core i5-5300u / 2.30 ghz, 8 gb de ram, disco duro de 120 gb ssd, webcam, windows 10 professional)</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-port%C3%A1til-2-30-GHz-10-Profesional/dp/B07KFMR8HX/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 2.1ghz i3-5010u 14" 1600 x 900pixeles negro - ordenador portátil (portátil, negro, concha, i3-5010u, intel core i3-5xxx, bga1168)</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-2-1GHz-i3-5010U-900Pixeles/dp/B017LX7V14/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450s  </t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450s&amp;qid=1631017971&amp;s=electronics&amp;sr=1-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t460  </t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t460 portátil de 14 pulgadas (negro) (intel core i5-6200u 2.3 ghz, 8 gb ddr4 ram, 256 gb ssd, intel hd graphics 520, windows 7 pro) (renovado)</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T460-Cuaderno-pulgadas/dp/B07N6JXM5N/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t460&amp;qid=1631017988&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t460  </t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t460 | i5-6300u - 2,4 ghz, 16 gb de ram, 256 gb de ssd, windows 10 pro.</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Ordenador-Port%C3%A1til-win10-Pro/dp/B01N5CD7TR/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t460&amp;qid=1631017988&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t460  </t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t460 14 pulgadas 1920 × 1080 full hd intel core i5 256 gb ssd disco duro 8 gb de memoria win 10 pro mar webcam teclado portátil ultrabook (certificado y reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ThinkPad-Pulgadas-iluminaci%C3%B3n-Ultrabook-Certificado/dp/B084Q7D9VP/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t460&amp;qid=1631017988&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t460  </t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t460 ultrabook - intel core i5-6300u, 16 gb de ram, disco ssd 256 gb, webcam, wifi, bluetooth, usb 3.0, windows 10 pro (teclado azerty francés) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T460-Ultrabook-reacondicionado/dp/B08DRBFSSS/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t460&amp;qid=1631017988&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t460p  </t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>piezas de repuesto originales y nuevas para lenovo thinkpad t460s, t460p, t470s, t470p 14" wqhd (2560 x 1440) ips lcd screen</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Piezas-repuesto-originales-nuevas-ThinkPad/dp/B08924QSB4/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t460p&amp;qid=1631018001&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t460s  </t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>ordenador portátil lenovo thinkpad t460s, intel core i5-6300u, ram 8 gb, ssd 256 gb, pantalla 14 pulgadas, webcam, win10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Ordenador-port%C3%A1til-Lenovo-ThinkPad-reacondicionado/dp/B0973CVHPX/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t460s&amp;qid=1631018015&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t470  </t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t470, t470s, l470 y t420 variación (reacondicionado) negro thinkpad t470 - core i5</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Variaci%C3%B3n-reacondicionado-ThinkPad/dp/B07RZ85JT9/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t470&amp;qid=1631018029&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t470p  </t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>piezas de repuesto originales y nuevas para lenovo thinkpad t460s, t460p, t470s, t470p 14" wqhd (2560 x 1440) ips lcd screen</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Piezas-repuesto-originales-nuevas-ThinkPad/dp/B08924QSB4/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t470p&amp;qid=1631018043&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t470p  </t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>us/uk/sp/fr english backlit keyboard for lenovo t460s t460p t470s t470p thinkpad 13 2nd laptop (color : no backlight uk)</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/English-Backlit-Keyboard-Lenovo-ThinkPad/dp/B09957X5WW/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t470p&amp;qid=1631018043&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t470s  </t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t470, t470s, l470 y t420 variación (reacondicionado) negro thinkpad t470 - core i5</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Variaci%C3%B3n-reacondicionado-ThinkPad/dp/B07RZ85JT9/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t470s&amp;qid=1631018057&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t480s  </t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t480s intel® 1600 mhz 8192 mb portátil, impulsión dura del flash uhd gráfico. 620 (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-port%C3%A1til-impulsi%C3%B3n-Reacondicionado/dp/B09BM9CHR7/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t480s&amp;qid=1631018084&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t480s  </t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>lenovo 40ag0090eu negro - base (acoplamiento, lenovo, thinkpad t480s, 90 w, negro)</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-40AG0090EU-Negro-Acoplamiento-ThinkPad/dp/B079QG111N/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t480s&amp;qid=1631018084&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490  </t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490 laptop | 14" fhd | 1.6ghz intel core i5-8365u quad-core | 16gb ddr4 | 256gb ssd | win10 pro - 3yr premier</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Laptop-i5-8365U-Quad-Core/dp/B083KP3VMP/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490&amp;qid=1631018099&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490  </t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490 ci5-8265u (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKPAD-T490-CI5-8265U-Reacondicionado/dp/B09B77L1NG/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490&amp;qid=1631018099&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490  </t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490 (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T490-Reacondicionado/dp/B09B711P2R/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490&amp;qid=1631018099&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490  </t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490 20n3000kge / 14" full-hd display / intel i5-8265u / 8gb ram / 256gb ssd / windows 10 pro</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-20N3000KGE-i5-8265U-256GB/dp/B07RG871Q7/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490&amp;qid=1631018099&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490  </t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490 core i5-8365u 8 gb 256 gb ssd 14 pulgadas fhd windows 10 pro laptop (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-i5-8365U-pulgadas-Reacondicionado/dp/B08YNYHZ1F/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490&amp;qid=1631018099&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490s  </t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490s 20nx002sge 14" full hd ips i5-8265u 8gb/256gb ssd w10p</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T490s-20NX002SGE-i5-8265U/dp/B07RF9LVPD/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490s&amp;qid=1631018112&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490s  </t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490s 20nx000ege / 14" fhd-display / intel i7-8565u / 16gb ddr4 ram / 512gb ssd / 4g lte / windows 10 pro</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T490s-20NX000EGE-i7-8565U/dp/B07RF9FX9B/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490s&amp;qid=1631018112&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t495  </t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t495 negro portátil 35,6 cm (14") 1920 x 1080 pixeles amd ryzen 5 pro 8 gb ddr4-sdram 512 gb ssd windows 10 pro thinkpad t495, amd ryzen 5 pro, 2,1 ghz, 35,6 cm (14"), 1920</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Port%C3%A1til-Pixeles-DDR4-SDRAM/dp/B07ZBDMXHB/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t495&amp;qid=1631018126&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t540p  </t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t540p&amp;qid=1631018195&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t550  </t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t550 15.6 pulgadas full hd i potente ordenador portátil i intel core i5-5.gen win 10 pro intel hd graphics i 2,3 kg negro (reacondicionado) (8 gb de ram - 256 gb ssd)</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T550-ordenador-reacondicionado/dp/B08KFPFJW5/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t550&amp;qid=1631018209&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t580  </t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>lenovo lenovobandeja de dispositivo de almacenamientoblancopara thinkpad p52s 20lb, 20lc, t580 20l9, 20la</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Estante-THINKPAD-T580-20l9-f0r41604/dp/B07JJXRMYL/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t580&amp;qid=1631018252&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad w540  </t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+w540&amp;qid=1631018279&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad w540  </t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad w540 i7-4710mq (dk) **new retail**, 61n2544-g (**new retail** 16gb/1tb/fhd/mb/k1/3/f/b/c/w8p)</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-i7-4710MQ-Retail-61N2544-G/dp/B00U5TLIFC/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+w540&amp;qid=1631018279&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad w541  </t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>zhangxia teclados de reemplazo teclado de la versión ru para lenovo thinkpad p50s t560 w540 t540p w541 t550 w550s l540 l560 e531 e540 accesorios portátiles</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Zhangxia-Teclados-reemplazo-Accesorios-port%C3%A1tiles/dp/B09CTF6SNJ/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+w541&amp;qid=1631018294&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad w541  </t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+w541&amp;qid=1631018294&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad w550s  </t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>zhangxia teclados de reemplazo teclado de la versión ru para lenovo thinkpad p50s t560 w540 t540p w541 t550 w550s l540 l560 e531 e540 accesorios portátiles</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Zhangxia-Teclados-reemplazo-Accesorios-port%C3%A1tiles/dp/B09CTF6SNJ/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+w550s&amp;qid=1631018308&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon  </t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 carbon gen 9 - portátil 14" wuxga (intel core i5-1135g7, 8gb ram, 256gb ssd, integrated intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Carbon-Gen-Integrated/dp/B096YTJ187/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x1+carbon&amp;qid=1631018321&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon  </t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 carbon g7 14" fhd ips i5-8265u 16gb/512gb ssd 4g win10pro</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Carbon-i5-8265U-Win10Pro/dp/B07ZHM4ZJP/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x1+carbon&amp;qid=1631018321&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon 4th gen  </t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>fqparts cubierta inferior de la caja del ordenador portátil d shell para lenovo thinkpad x1 carbon 1st gen 2nd gen 3rd gen 4th gen 5th gen - kabylake 5th gen - skylake 6th gen 7th gen color negro</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/fqparts-Cubierta-Inferior-Ordenador-port%C3%A1til/dp/B099DBZZZ9/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x1+carbon+4th+gen&amp;qid=1631018337&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon gen 4  </t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 carbon gen 9 - portátil 14" wuxga (intel core i5-1135g7, 8gb ram, 256gb ssd, integrated intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Carbon-Gen-Integrated/dp/B096YTJ187/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x1+carbon+gen+4&amp;qid=1631018403&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon gen 5  </t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 carbon gen 9 - portátil 14" wuxga (intel core i5-1135g7, 8gb ram, 256gb ssd, integrated intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Carbon-Gen-Integrated/dp/B096YTJ187/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x1+carbon+gen+5&amp;qid=1631018416&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 yoga  </t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x13 yoga gen 1 - portátil táctil convertible 13.3" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro) thinkpad pen pro, negro- teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-H%C3%ADbrido-Pixeles-Pantalla/dp/B08CKG5T1N/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x1+yoga&amp;qid=1631018430&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x13  </t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x13 yoga gen 1 - portátil táctil convertible 13.3" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro) thinkpad pen pro, negro- teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-H%C3%ADbrido-Pixeles-Pantalla/dp/B08CKG5T1N/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x13&amp;qid=1631018469&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x13  </t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x13 gen 1 - portátil 13.3" fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20T2003FSP-Pc-Portatil-20T2003Fsp/dp/B08CMS67GK/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x13&amp;qid=1631018469&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x13  </t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x13 yoga gen1-20sx0004sp</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-X13-Yoga-Gen1-20Sx0004Sp/dp/B08CRTQPPZ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x13&amp;qid=1631018469&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x13  </t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x13 gen1-20t2003tsp</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20T2003TSP-Thinkpad-X13-Gen1-20T2003Tsp/dp/B08CNCPBJS/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x13&amp;qid=1631018469&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x13  </t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x13 yoga i5-10210u</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKPAD-X13-Yoga-I5-10210U/dp/B08KWC3LHM/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x13&amp;qid=1631018469&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x201  </t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>globalsmart batería para portátil alta capacidad para lenovo ibm thinkpad x201 tablet 8 celdas negro</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Globalsmart-Capacidad-ThinkPad-X201-Tablet/dp/B07QC5HJ9L/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x201&amp;qid=1631018497&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x220  </t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x220 - portátil</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/X220-Lenovo-Thinkpad-Port%C3%A1til/dp/B0050B7AMA/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x220&amp;qid=1631018512&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x230i  </t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>sunmall teclado de repuesto para ordenador portátil con puntero (sin retroiluminación) compatible con lenovo ibm thinkpad t430 t430s t430i x230 x230t x230i t530 w530 (no compatible con t430u x230s)</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/retroiluminaci%C3%B3n-X230-X230I-T430-T430s-L430-T530-T530i-W530-L530-nosotros/dp/B01K4GPGEY/ref=sr_1_20?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x230i&amp;qid=1631018525&amp;s=electronics&amp;sr=1-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x240  </t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x240 12.5 pulgadas (1366x768) 4th gen intel core i5-4210y 8gb 240gb ssd windows 10 professional 64-bit laptop pc (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Professional-Certified-Refurbished/dp/B07CSZCDD4/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x240&amp;qid=1631018539&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x240  </t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x240 12.5" 4th gen intel core i7-4600u 8gb 256gb ssd webcam windows 10 professional 64-bit with antivirus (certified refurbished)</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Professional-Antivirus-Certified-Refurbished/dp/B072DXM2K6/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x240&amp;qid=1631018539&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250, intel core i5 5300u 2,3 ghz, pantalla led hd (1366 x 768), memoria ram ddr3 de 8 gb, ssd de 180 gb, windows 10 pro.</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-i5-5300U-Pantalla-Windows/dp/B07HL6B8L8/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250 - ordenador portátil (i7-5600u, windows 7 professional, 3+3, 64-bit, windows 10 pro, intel core i7-5xxx)</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-X250-Ordenador-Professional/dp/B07R5SNP3H/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250 12,5 pulgadas hd intel core i5 256 gb ssd disco duro 8 gb de memoria windows 10 pro webcam business notebook (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-pulgadas-Business-reacondicionado/dp/B097LVLWC9/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250 12,5 pulgadas intel core i5 256 gb ssd disco duro 8 gb de memoria win 10 pro mar webcam umts lte (certificado y reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Pulgadas-Certificado-reacondicionado/dp/B07Z8G3KKK/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250 - ordenador portátil (12,5", hd, intel core i5-5300u, 2,30 ghz, 8 gb de ram, ssd de 120 gb, webcam, windows 10 professional), color negro</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-X250-Ordenador-Professional/dp/B086WMQ51C/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250 – 1366 8gb ram - 480gb ssd</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-X250-1366-8GB/dp/B07H1S1FMS/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250 12.5 pulgadas ultrabook core i5-5300u 8gb 256gb ssd windows 10 professional 64-bit (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ThinkPad-Ultrabook-Professional-Certified-Refurbished/dp/B01M5FP9L1/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x260  </t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x260 12.5 ultrabook core i5 6300u 2.4ghz 8gb ram ssd hdmi wifi webcam windows 10 professional 64 bit renovado 256 gb (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Ultrabook-Professional-Reacondicionado/dp/B0953ZL42M/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x260&amp;qid=1631018567&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x260  </t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x260 2.3ghz i5-6200u 12.5" 1366 x 768pixeles negro - portátil (i5-6200u, thinkpad ultranav, windows 7 professional, 3+3, 64-bit, windows 10 pro) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-2-3GHz-i5-6200U-768Pixeles/dp/B086C639T9/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x260&amp;qid=1631018567&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x260  </t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x260 2.5ghz i7-6500u 12.5" 1920 x 1080pixeles 3g 4g negro - ordenador portátil (i7-6500u, thinkpad ultranav, windows 7 professional, 3+3, 64 bits, windows 10 pro)</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-2-5GHz-i7-6500U-1080Pixeles/dp/B01EJW7VSI/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x260&amp;qid=1631018567&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x270  </t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x270 20hms6ad00 12,5" i5 7200u 8gb ram 256gb ssd wwan win 10 de (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-20HMS6AD00-7200U-Reacondicionado/dp/B09B74PP91/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x270&amp;qid=1631018580&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x270  </t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x270 ultrabook de 12,5 pulgadas, intel core i5-6300u 2.4ghz 8gb 512gb ssd hdmi wifi webcam windows 10 pro de 64 bits (renovado)</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-X270-12-5-Ultrabook/dp/B082P83VSD/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x270&amp;qid=1631018580&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>lenovo v v15 computer portatile grigio 39,6 cm (15.6") 1920 x 1080 pixel amd ryz</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-port%C3%A1til-pantalla-pulgadas/dp/B089DBLZGG/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>lenovo v15 n4020 4gb 256ssd w10 15.6</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-N4020-256SSD-15-6/dp/B08VW1FP9P/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>lenovo portatil v15-ada amd 3020e 4gb 256gb 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-PORTATIL-V15-ADA-3020E-FREEDOS/dp/B089S2JK2M/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>lenovo v v15 gris portátil 39,6 cm (15.6") 1920 x 1080 pixeles amd ryzen 5 8 gb ddr4-sdram 256 gb ssd wi-fi 5 (802.11ac) windows 10 pro v v15, amd ryzen 5, 2,1 ghz, 39,6 cm (15.6"), 1920 x</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Port%C3%A1til-Pixeles-DDR4-SDRAM-802-11ac/dp/B0864ZYF67/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>lenovo v v15 gris portátil 39,6 cm (15.6") 1920 x 1080 pixeles intel® core i3 de 10ma generación 8 gb ddr4-sdram 256 gb ssd wi-fi 5 (802.11ac) windows 10 pro v v15, intel® core i3</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Port%C3%A1til-Generaci%C3%B3n-DDR4-SDRAM-802-11ac/dp/B08655JG8Y/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>lenovo v v15 portátil gris 39,6 cm (15.6") 1920 x 1080 pixeles amd athlon gold 8 gb ddr4-sdram 256 gb ssd wi-fi 5 (802.11ac) windows 10 pro v v15, amd athlon gold, 2,4 ghz, 39,6 cm (15.6"),</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Port%C3%A1til-Pixeles-DDR4-SDRAM-802-11ac/dp/B08KR9FM85/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>lenovo s0229981 portátil v15, intel core i3-1115g4, 8 gb ddr4, 15.6", 256 gb ssd</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-S0229981-Port%C3%A1til-Intel-I3-1115G4/dp/B08ZLHDN6G/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>lenovo notebook thinkpad essential v15-iil 82c500g5sp (0194778007788)</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Notebook-Essential-82C500G5SP-0194778007788/dp/B087LSP27L/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>lenovo v15 ada 82c7 - portátil 15.6" fullhd (ryzen 5 3500u, 8gb ram, 256gb ssd, amd radeon vega 8 graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORT%C3%81TIL-LENOVO-V15-ADA-82C7007TSP/dp/B08FZTGRXQ/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>lenovo portatil v15-ada amd 3020e 8gb 256gbssd 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-PORTATIL-V15-ADA-256GBSSD-FREEDOS/dp/B089S2H9TK/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>lenovo v15 ada - 82c7009bsp</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-ADA-82C7009BSP/dp/B08KHGW9M1/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>lenovo v v15 computer portatile grigio 39,6 cm (15.6") 1920 x 1080 pixel amd ryz</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Essential-82C70006IX-R5-3500U-SSD256GB/dp/B08BTLL2BR/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>lenovo v v15 gris portátil 39,6 cm (15.6") 1920 x 1080 pixeles intel® core i5 de 10ma generación 8 gb ddr4-sdram 512 gb ssd wi-fi 5 (802.11ac) windows 10 pro v v15, intel® core i5</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Port%C3%A1til-Generaci%C3%B3n-DDR4-SDRAM-802-11ac/dp/B08651PN89/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>lenovo v v15 gris portátil 39,6 cm (15.6") 1920 x 1080 pixeles intel® core i5 de 10ma generación 8 gb ddr4-sdram 256 gb ssd wi-fi 5 (802.11ac) windows 10 pro v v15, intel® core i5</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Port%C3%A1til-Generaci%C3%B3n-DDR4-SDRAM-802-11ac/dp/B0864P1FCT/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>portátil lenovo v15 cpu amd silver 3020e 2 core a 1,2 ghz, 15,6 pulgadas, pantalla hd 1366 x 768 píxeles, ddr4 8 gb, ssd 256 gb, webcam, wifi, bt, win 10 pro, a/v, listo para usar en gar. italia</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-V15-pulgadas-pantalla-p%C3%ADxeles/dp/B08PMP4DVY/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v110-15ast  </t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>piezas originales para lenovo v110-15ast v110-15iap 15.6" reposamanos mayúsculas con nosotros teclado 5cb0l78358</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/originales-V110-15AST-V110-15IAP-Reposamanos-5CB0L78358/dp/B08VDMVY37/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v110-15ast&amp;qid=1631018666&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14  </t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>lenovo v14 - ordenador portátil 14" hd (athlon 3020e, 4gb ram, 128gb ssd, uma graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V14-Ordenador-port%C3%A1til-Graphics/dp/B08C6TL5FB/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v14&amp;qid=1631018693&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14  </t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>lenovo v14 - ordenador portátil 14" hd (amd ryzen 3-3250u, 4gb ram, 128gb ssd, uma graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V14-Ordenador-port%C3%A1til-Graphics/dp/B08C6ZPX38/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v14&amp;qid=1631018693&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14  </t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>portatil lenovo v14 ada 3020e 4gb 256gbssd 14" freedos</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-3020E-256GBSSD-FREEDOS/dp/B097T81TRQ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v14&amp;qid=1631018693&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14  </t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>lenovo v14 igl - ordenador portátil 14" fullhd (celeron n4020, 4gb ram, 128gb ssd, intel uhd graphics win10 pro for edu), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V14-IGL-Ordenador-Port%C3%A1til/dp/B098V4QNJT/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v14&amp;qid=1631018693&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14  </t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>lenovo s0227183 ultrabook, v14 82c4000u2sp 14" i5-1035g1, 8 gb ram, 256 gb ssd, gris</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V14-i5-1035G1-8GB-256SSD/dp/B088YM8PL3/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v14&amp;qid=1631018693&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14 ada  </t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>portatil lenovo v14 ada 3020e 4gb 256gbssd 14" freedos</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-3020E-256GBSSD-FREEDOS/dp/B097T81TRQ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v14+ada&amp;qid=1631018707&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>lenovo s0229981 portátil v15, intel core i3-1115g4, 8 gb ddr4, 15.6", 256 gb ssd</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-S0229981-Port%C3%A1til-Intel-I3-1115G4/dp/B08ZLHDN6G/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>lenovo s0229870 portátil v15, intel core i3-1115g4, 8 gb ddr4, 15.6", 512 gb ssd</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-S0229870-Port%C3%A1til-Intel-I3-1115G4/dp/B08YKG3Q9Q/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>lenovo v15 ill - portátil 15.6" fullhd (intel core i5-1035g1, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-82C500A3SP-V15-IIL/dp/B08FXRVN14/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>lenovo v15-ada - portátil 15.6" hd (amd 3020e, 8gb ram, 256gb ssd, amd radeon graphics, windows10), clor gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-ADA-Port%C3%A1til-Graphics-Windows10/dp/B089SC1R1D/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>lenovo v15 n4020 4gb 256ssd w10 15.6</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-N4020-256SSD-15-6/dp/B08VW1FP9P/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15-itl g2 i5-1135g7 8gb 512gbssd 15,6" fhd w10h</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-V15-ITL-I5-1135G7-512GBSSD/dp/B0926QSLGF/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>lenovo v v15 computer portatile grigio 39,6 cm (15.6") 1920 x 1080 pixel amd ryz</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-port%C3%A1til-pantalla-pulgadas/dp/B089DBLZGG/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>lenovo v15 g2 itl - portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-G2-ITL-i5-1135G7/dp/B0924P4J6X/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>lenovo s0229452 notebook v15 15.6" intel core i5 - 1035g1, 8 gb ddr4, 256 gb ssd</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-S0229452-Notebook-15-6-Intel/dp/B08X1P5RYG/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>lenovo v15 ada 82c7 - portátil 15.6" fullhd (ryzen 5 3500u, 8gb ram, 256gb ssd, amd radeon vega 8 graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORT%C3%81TIL-LENOVO-V15-ADA-82C7007TSP/dp/B08FZTGRXQ/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>lenovo v15 i3-1005g1 8gb 256ssd dos 15.6</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-i3-1005G1-256SSD-15-6/dp/B0895KLFY6/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>lenovo portatil v15-ada amd 3020e 4gb 256gb 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-PORTATIL-V15-ADA-3020E-FREEDOS/dp/B089S2JK2M/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>lenovo v15 amd r3-3250u 8gb 256ssd dos 15.6"</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-R3-3250U-256SSD-15-6/dp/B08FGM7338/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>lenovo portatil v15-ada amd 3020e 8gb 256gbssd 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-PORTATIL-V15-ADA-256GBSSD-FREEDOS/dp/B089S2H9TK/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>lenovo v15 g2 itl - portátil 15.6" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-G2-ITL-i3-1115G4/dp/B08YZ512F3/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15 g2 itl i3-1115g4 8gb 512gbssd fhd 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-I3-1115G4-512GBSSD-FREEDOS/dp/B099SF1HLR/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>lenovo v15 ada - 82c7009bsp</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-ADA-82C7009BSP/dp/B08KHGW9M1/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 ada  </t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>lenovo v15 ada 82c7 - portátil 15.6" fullhd (ryzen 5 3500u, 8gb ram, 256gb ssd, amd radeon vega 8 graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORT%C3%81TIL-LENOVO-V15-ADA-82C7007TSP/dp/B08FZTGRXQ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+ada&amp;qid=1631018797&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 ada  </t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>lenovo v15-ada - portátil 15.6" hd (amd 3020e, 8gb ram, 256gb ssd, amd radeon graphics, windows10), clor gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-ADA-Port%C3%A1til-Graphics-Windows10/dp/B089SC1R1D/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+ada&amp;qid=1631018797&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 ada  </t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>lenovo portatil v15-ada amd 3020e 8gb 256gbssd 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-PORTATIL-V15-ADA-256GBSSD-FREEDOS/dp/B089S2H9TK/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+ada&amp;qid=1631018797&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 ada  </t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>lenovo portatil v15-ada amd 3020e 4gb 256gb 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-PORTATIL-V15-ADA-3020E-FREEDOS/dp/B089S2JK2M/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+ada&amp;qid=1631018797&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 ada  </t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>lenovo v15 ada - 82c7009bsp</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-ADA-82C7009BSP/dp/B08KHGW9M1/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+ada&amp;qid=1631018797&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 ada  </t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>lenovo 15.6" amd-3020e 4gb 256ssd webcam essential v15-ada no os</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-AMD-3020E-256SSD-Essential-V15-ADA/dp/B08K99VTJB/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+ada&amp;qid=1631018797&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15-itl g2 i5-1135g7 8gb 512gbssd 15,6" fhd w10h</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-V15-ITL-I5-1135G7-512GBSSD/dp/B0926QSLGF/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+g2+itl&amp;qid=1631018824&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>lenovo v15 g2 itl - portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-G2-ITL-i5-1135G7/dp/B0924P4J6X/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+g2+itl&amp;qid=1631018824&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15 g2 itl i3-1115g4 8gb 512gbssd fhd 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-I3-1115G4-512GBSSD-FREEDOS/dp/B099SF1HLR/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+g2+itl&amp;qid=1631018824&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>lenovo v15 g2 itl - portátil 15.6" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-G2-ITL-i3-1115G4/dp/B08YZ512F3/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+g2+itl&amp;qid=1631018824&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15-itl g2 i5-1135g7 8gb 256gbssd 15,6" fhd w10h</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-V15-ITL-I5-1135G7-256GBSSD/dp/B0999KNCTL/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+g2+itl&amp;qid=1631018824&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15 g2 itl i5-1135g7 8gb 256gbssd fhd 15,6" freedos</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-I5-1135G7-256GBSSD-FREEDOS/dp/B099SDVJJN/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+g2+itl&amp;qid=1631018824&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 iil  </t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>lenovo notebook thinkpad essential v15-iil 82c500g5sp (0194778007788)</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Notebook-Essential-82C500G5SP-0194778007788/dp/B087LSP27L/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+iil&amp;qid=1631018839&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 iil  </t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>lenovo v15 iil intel core i5 - 1035g1 4 gb ddr4, disco duro de 1 tb, gráficos intel uhd integrados, pantalla fhd antirreflejos, teclado inglés, sistema no operativo, gris hierro</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-Intel-Core-antirreflejos/dp/B08V5CNC5V/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+iil&amp;qid=1631018839&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15-itl  </t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15-itl g2 i5-1135g7 8gb 512gbssd 15,6" fhd w10h</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-V15-ITL-I5-1135G7-512GBSSD/dp/B0926QSLGF/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15-itl&amp;qid=1631018865&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15-itl  </t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15-itl g2 i5-1135g7 8gb 256gbssd 15,6" fhd w10h</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-V15-ITL-I5-1135G7-256GBSSD/dp/B0999KNCTL/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15-itl&amp;qid=1631018865&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v17-iil  </t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>lenovo nb 17.3" i5-1035g1 8gb 512ssd w10p essential v17-iil</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-I5-1035G1-512SSD-Essential-V17-IIL/dp/B08KW87WDG/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v17-iil&amp;qid=1631018878&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo w540  </t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>tarjeta madre placa principal de cuaderno fit for lenovo thinkpad w540 w541 placa base portátil 12291-2 48.4lo14.021 gpu k1100m 2gb computer motherboard</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Principal-Cuaderno-ThinkPad-48-4LO14-021-Motherboard/dp/B09DL2NHNN/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+w540&amp;qid=1631018916&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x230  </t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>lenovo x230 (12 pulgadas laptop) [intel core i5 3320m 2.60ghz, 8gb memory, 256gb ssd,with windows 10 professional (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-2-60GHz-Professional-Certified-Refurbished/dp/B01C6WNH3Q/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x230&amp;qid=1631018944&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x240  </t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x240 12.5" (1366x768) 4th gen intel core i5-4210y 8gb 500gb windows 10 professional 64-bit laptop pc (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Professional-Certified-Refurbished/dp/B07CSW7BMX/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x240&amp;qid=1631018958&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x240  </t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>lenovo x240 i5 8gb ram 480gb ssd</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-X240-1366-8GB/dp/B07GT36FD5/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x240&amp;qid=1631018958&amp;s=electronics&amp;sr=1-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x240  </t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x240 12.5 pulgadas (1366x768) 4th gen intel core i5-4210y 8gb 240gb ssd windows 10 professional 64-bit laptop pc (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Professional-Certified-Refurbished/dp/B07CSZCDD4/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x240&amp;qid=1631018958&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x260  </t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x260 12.5 ultrabook core i5 6300u 2.4ghz 8gb ram ssd hdmi wifi webcam windows 10 professional 64 bit renovado 256 gb (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Ultrabook-Professional-Reacondicionado/dp/B0953ZL42M/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x260&amp;qid=1631018973&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x260  </t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x260 2.3ghz i5-6200u 12.5" 1366 x 768pixeles negro - portátil (i5-6200u, thinkpad ultranav, windows 7 professional, 3+3, 64-bit, windows 10 pro) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-2-3GHz-i5-6200U-768Pixeles/dp/B086C639T9/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x260&amp;qid=1631018973&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x260  </t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x260 2.5ghz i7-6500u 12.5" 1920 x 1080pixeles 3g 4g negro - ordenador portátil (i7-6500u, thinkpad ultranav, windows 7 professional, 3+3, 64 bits, windows 10 pro)</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-2-5GHz-i7-6500U-1080Pixeles/dp/B01EJW7VSI/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x260&amp;qid=1631018973&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga 520-14ikb  </t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>ftdlcd® para lenovo yoga 520-14ikb 80x8 81c8 520-14isk 520-14arr 14 pulgadas fhd ips pantalla táctil digitalizador lcd assembly + marco b140han04.2 1920x1080</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/520-14IKB-Pantalla-Diditizer-B140HAN04-2-1920X1080/dp/B07TDLQYP8/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+yoga+520-14ikb&amp;qid=1631018987&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga 9 14itl5  </t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>lenovo yoga 9 14itl5 82bg 14" portátil intel i7-1185g7 3 ghz (4,8 ghz turbo), 16 gb ram, 1 tb m2 ssd, ultra hd 4 k, tactile, windows 10 home, negro teclado italiano</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Yoga-82BG-port%C3%A1til-i7-1185G7/dp/B09D3PJCS4/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+yoga+9+14itl5&amp;qid=1631019028&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga 9 14itl5  </t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>lenovo yoga 9 14itl5 82bg 14" portátil intel i5-1135g72.4 ghz (4.2 ghz turbo), 8 gb de ram, 512 gb m2 ssd, full hd, táctil, windows 10 home, mica, teclado italiano</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-port%C3%A1til-i5-1135G72-4-Windows-italiano/dp/B09D3KMRK9/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+yoga+9+14itl5&amp;qid=1631019028&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga 9 14itl5  </t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>lenovo yoga slim 9 14itl5- ordenador portátil 14’’ uhd (intel core i7-1165g7, 16gb ram, 1tb ssd, integrated intel iris xe graphics, windows 10 pro) shadow black - teclado qwerty portugal</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-port%C3%A1til-i7-1165G7-Integrated/dp/B092JMKX94/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+yoga+9+14itl5&amp;qid=1631019028&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga duet  </t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>lenovo yoga duet 7 - portátil 2 en 1 wqhd de 13 &amp;amp; amp; quot; (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10), lenovo bolígrafo digital, gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Yoga-Duet-Port%C3%A1til-i5-10210U/dp/B08VJBNLC2/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+yoga+duet&amp;qid=1631019056&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga slim 9 14itl5  </t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>lenovo yoga slim 9 14itl5- ordenador portátil 14’’ uhd (intel core i7-1165g7, 16gb ram, 1tb ssd, integrated intel iris xe graphics, windows 10 pro) shadow black - teclado qwerty portugal</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-port%C3%A1til-i7-1165G7-Integrated/dp/B092JMKX94/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+yoga+slim+9+14itl5&amp;qid=1631019082&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
